--- a/data/trans_bre/P1803_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1803_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-0.2919658940161926</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.534695786155563</v>
+        <v>2.534695786155565</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.07527596864451963</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.4201486817946101</v>
+        <v>0.4201486817946105</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.378388289773708</v>
+        <v>-2.378502854987753</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1098671959916945</v>
+        <v>0.1682681553668355</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4747877142281978</v>
+        <v>-0.4827024371799924</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.02545128189883281</v>
+        <v>0.01370639621244705</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.723978441146197</v>
+        <v>1.777425127578241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.050925884313108</v>
+        <v>5.016258709844912</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.6400256319706398</v>
+        <v>0.6400614725097512</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.098970112789401</v>
+        <v>1.125356460534246</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.263400370987589</v>
+        <v>-1.526324802134267</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5882075105075287</v>
+        <v>-0.5947791782101264</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2500956066030618</v>
+        <v>-0.3026087127373976</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08193144980705615</v>
+        <v>-0.06943877487558843</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.44431386106367</v>
+        <v>2.293158286970528</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.34347430438272</v>
+        <v>4.136396633435067</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7779220066845152</v>
+        <v>0.6710319393064859</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7574100516139302</v>
+        <v>0.7549325026959441</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>1.472937346368856</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.832151882332022</v>
+        <v>2.832151882332021</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.4188343836617649</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.413417577798491</v>
+        <v>0.4134175777984908</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5901466840503294</v>
+        <v>-0.4972021012033949</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2755866821772384</v>
+        <v>-0.01838861861562217</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1500603260235767</v>
+        <v>-0.1220012217139618</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.02298561112295466</v>
+        <v>-0.00484898779700983</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.463896216273106</v>
+        <v>3.673696629353036</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.293047866466676</v>
+        <v>5.158946573583811</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.45726725771919</v>
+        <v>1.459160476699943</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.991184891024678</v>
+        <v>0.9650308048151373</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>1.65397308999935</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7035781271170118</v>
+        <v>0.7035781271170133</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2624198172419061</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.06172568944495511</v>
+        <v>0.06172568944495524</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6080763821849865</v>
+        <v>-0.7261934725422236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.799621708944685</v>
+        <v>-1.88056826144352</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09233906134338198</v>
+        <v>-0.100541560733055</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1361937476532565</v>
+        <v>-0.1449729528538822</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.199611202753328</v>
+        <v>3.875582784388906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.48623810807288</v>
+        <v>3.439081010211505</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8379295985490314</v>
+        <v>0.7763191309652805</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3623474834652541</v>
+        <v>0.3570068943077197</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1649449451590694</v>
+        <v>-0.1918300808542791</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5921675353206577</v>
+        <v>0.6067651867451287</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.03102214318755712</v>
+        <v>-0.03926969904200549</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06703261477596564</v>
+        <v>0.06984045692526956</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.104261287433074</v>
+        <v>1.923496995952959</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.268136054407182</v>
+        <v>3.292458642381537</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.5296284762389276</v>
+        <v>0.4675565394127648</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.4608550226798991</v>
+        <v>0.466163795152738</v>
       </c>
     </row>
     <row r="19">
